--- a/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_16-04/curvature_data.xlsx
+++ b/FBG_Needle_Calibration_Data/needle_1/Calibration/90 deg/12-28-19_16-04/curvature_data.xlsx
@@ -379,114 +379,114 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>57955.091236</v>
+        <v>57879.423232</v>
       </c>
       <c r="B2">
-        <v>-4.0595677258e-05</v>
+        <v>-1.4710476285e-05</v>
       </c>
       <c r="C2">
-        <v>1.0440637395e-05</v>
+        <v>-1.7442039142e-05</v>
       </c>
       <c r="D2">
-        <v>-5.5695710187e-05</v>
+        <v>-2.5532165512e-05</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>57930.559234</v>
+        <v>57892.291233</v>
       </c>
       <c r="B3">
-        <v>-0.0002758121</v>
+        <v>-0.00011565514756</v>
       </c>
       <c r="C3">
-        <v>-0.0003308428</v>
+        <v>-0.00012197857156</v>
       </c>
       <c r="D3">
-        <v>-0.0001255172</v>
+        <v>-8.2236148368e-05</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>57879.423232</v>
+        <v>57904.223233</v>
       </c>
       <c r="B4">
-        <v>-1.4710476285e-05</v>
+        <v>-0.0002923648</v>
       </c>
       <c r="C4">
-        <v>-1.7442039142e-05</v>
+        <v>-0.0003419524</v>
       </c>
       <c r="D4">
-        <v>-2.5532165512e-05</v>
+        <v>-0.0001150428</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>57967.559236</v>
+        <v>57919.023234</v>
       </c>
       <c r="B5">
-        <v>8.6209058441e-06</v>
+        <v>-0.0005536895</v>
       </c>
       <c r="C5">
-        <v>-1.3188968318e-06</v>
+        <v>-0.0005718515</v>
       </c>
       <c r="D5">
-        <v>-3.0600375339e-05</v>
+        <v>-0.0001508571</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>57892.291233</v>
+        <v>57930.559234</v>
       </c>
       <c r="B6">
-        <v>-0.00011565514756</v>
+        <v>-0.0002758121</v>
       </c>
       <c r="C6">
-        <v>-0.00012197857156</v>
+        <v>-0.0003308428</v>
       </c>
       <c r="D6">
-        <v>-8.2236148368e-05</v>
+        <v>-0.0001255172</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>57904.223233</v>
+        <v>57941.891235</v>
       </c>
       <c r="B7">
-        <v>-0.0002923648</v>
+        <v>-0.00013993480019</v>
       </c>
       <c r="C7">
-        <v>-0.0003419524</v>
+        <v>-0.00012132879788</v>
       </c>
       <c r="D7">
-        <v>-0.0001150428</v>
+        <v>-8.1209159272e-05</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>57941.891235</v>
+        <v>57955.091236</v>
       </c>
       <c r="B8">
-        <v>-0.00013993480019</v>
+        <v>-4.0595677258e-05</v>
       </c>
       <c r="C8">
-        <v>-0.00012132879788</v>
+        <v>1.0440637395e-05</v>
       </c>
       <c r="D8">
-        <v>-8.1209159272e-05</v>
+        <v>-5.5695710187e-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>57919.023234</v>
+        <v>57967.559236</v>
       </c>
       <c r="B9">
-        <v>-0.0005536895</v>
+        <v>8.6209058441e-06</v>
       </c>
       <c r="C9">
-        <v>-0.0005718515</v>
+        <v>-1.3188968318e-06</v>
       </c>
       <c r="D9">
-        <v>-0.0001508571</v>
+        <v>-3.0600375339e-05</v>
       </c>
     </row>
   </sheetData>
